--- a/Esquema _ Ingr Proceso.xlsx
+++ b/Esquema _ Ingr Proceso.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>Ciudad</t>
   </si>
@@ -307,39 +307,6 @@
   </si>
   <si>
     <t>2. Actualizar información de procesos y enviar notificación en caso de que haya información nueva (a partir del radicado completo)</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
-    <t>l2</t>
-  </si>
-  <si>
-    <t>l3</t>
-  </si>
-  <si>
-    <t>l4</t>
-  </si>
-  <si>
-    <t>l5</t>
-  </si>
-  <si>
-    <t>l6</t>
-  </si>
-  <si>
-    <t>l7</t>
-  </si>
-  <si>
-    <t>l8</t>
-  </si>
-  <si>
-    <t>l9</t>
-  </si>
-  <si>
-    <t>l10</t>
-  </si>
-  <si>
-    <t>l11</t>
   </si>
 </sst>
 </file>
@@ -406,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -556,32 +523,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -923,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -933,53 +880,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -998,55 +942,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1076,16 +1020,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1100,8 +1044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7591425" y="904875"/>
-          <a:ext cx="1057275" cy="428625"/>
+          <a:off x="7435215" y="2943225"/>
+          <a:ext cx="1091565" cy="413385"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1139,16 +1083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>706755</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1163,8 +1107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9048750" y="904875"/>
-          <a:ext cx="1057275" cy="428625"/>
+          <a:off x="7458075" y="3568065"/>
+          <a:ext cx="1057275" cy="413385"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1500,476 +1444,423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G3" sqref="G3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="53" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="F5" s="50" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="50" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="50" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="50" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>6</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="54" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>7</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="56" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="56" t="str">
-        <f>+IF(G10="Tercero Interviniente","Tercero Interviniente","")</f>
+      <c r="F12" s="54"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="53" t="str">
+        <f>+IF(C10="Tercero Interviniente","Tercero Interviniente","")</f>
         <v>Tercero Interviniente</v>
       </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="24" t="s">
+      <c r="I12" s="54"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="24" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="24" t="str">
-        <f>+IF(L12="","","Tipo de persona")</f>
+      <c r="G13" s="14"/>
+      <c r="H13" s="21" t="str">
+        <f>+IF(H12="","","Tipo de persona")</f>
         <v>Tipo de persona</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="24" t="str">
-        <f>+IF(G13="Natural","Nombre","Razón Social")</f>
+      <c r="I13" s="19"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="21" t="str">
+        <f>+IF(C13="Natural","Nombre","Razón Social")</f>
         <v>Razón Social</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="24" t="str">
-        <f>+IF(J13="Natural","Nombre","Razón Social")</f>
+      <c r="C14" s="19"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="21" t="str">
+        <f>+IF(F13="Natural","Nombre","Razón Social")</f>
         <v>Razón Social</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="24" t="str">
-        <f>+IF(L12="","",(IF(M13="Natural","Nombre","Razón Social")))</f>
+      <c r="F14" s="19"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="21" t="str">
+        <f>+IF(H12="","",(IF(I13="Natural","Nombre","Razón Social")))</f>
         <v>Razón Social</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="25" t="str">
-        <f>+IF(G13="Natural","Cédula","NIT")</f>
+      <c r="I14" s="19"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>10</v>
+      </c>
+      <c r="B15" s="22" t="str">
+        <f>+IF(C13="Natural","Cédula","NIT")</f>
         <v>NIT</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="25" t="str">
-        <f>+IF(J13="Natural","Cédula","NIT")</f>
+      <c r="C15" s="20"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="22" t="str">
+        <f>+IF(F13="Natural","Cédula","NIT")</f>
         <v>NIT</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="25" t="str">
-        <f>+IF(L12="","",(IF(M13="Natural","Cédula","NIT")))</f>
+      <c r="F15" s="20"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="22" t="str">
+        <f>+IF(H12="","",(IF(I13="Natural","Cédula","NIT")))</f>
         <v>NIT</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="I15" s="20"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>11</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="16" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>14</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B3:D13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="G3:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1980,31 +1871,31 @@
           <x14:formula1>
             <xm:f>Campos!$D$3:$D$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G4</xm:sqref>
+          <xm:sqref>C4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Campos!$D$9:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>G6</xm:sqref>
+          <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Campos!$D$12:$D$14</xm:f>
           </x14:formula1>
-          <xm:sqref>G10</xm:sqref>
+          <xm:sqref>C10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Campos!$D$17:$D$37</xm:f>
           </x14:formula1>
-          <xm:sqref>G17</xm:sqref>
+          <xm:sqref>C17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Campos!$D$15:$D$16</xm:f>
           </x14:formula1>
-          <xm:sqref>G13 J13 M13</xm:sqref>
+          <xm:sqref>C13 F13 I13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2017,7 +1908,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2027,301 +1918,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="30" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="30" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="30" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="33" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="30" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="33" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="35" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="37" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="37" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="35" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="33" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="33" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="37" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2351,21 +2242,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="65" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2374,112 +2265,112 @@
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="40" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="65" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="69"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="48" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="65" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="43" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2487,11 +2378,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -2499,90 +2390,90 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="69"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="65" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="63"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="63"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="63"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="66"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="63"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="63"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="66"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="63"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="70"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="66"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="63"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="69"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="67"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2643,82 +2534,82 @@
       <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="51" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:22" s="48" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="49" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Esquema _ Ingr Proceso.xlsx
+++ b/Esquema _ Ingr Proceso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaz" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
   <si>
     <t>Ciudad</t>
   </si>
@@ -307,6 +307,144 @@
   </si>
   <si>
     <t>2. Actualizar información de procesos y enviar notificación en caso de que haya información nueva (a partir del radicado completo)</t>
+  </si>
+  <si>
+    <t>col_</t>
+  </si>
+  <si>
+    <t>radicado_ini</t>
+  </si>
+  <si>
+    <t>radicado_completo</t>
+  </si>
+  <si>
+    <t>fecha_radicacion</t>
+  </si>
+  <si>
+    <t>tipo_general_proceso</t>
+  </si>
+  <si>
+    <t>tipo_especifico_proceso</t>
+  </si>
+  <si>
+    <t>cuantia</t>
+  </si>
+  <si>
+    <t>instancia</t>
+  </si>
+  <si>
+    <t>responsable</t>
+  </si>
+  <si>
+    <t>apoderado</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>entidad</t>
+  </si>
+  <si>
+    <t>jurisdiccion</t>
+  </si>
+  <si>
+    <t>tipo_sujeto_cliente</t>
+  </si>
+  <si>
+    <t>tipo_persona_demandante</t>
+  </si>
+  <si>
+    <t>razon_social_demandante</t>
+  </si>
+  <si>
+    <t>nit_demandate</t>
+  </si>
+  <si>
+    <t>tipo_persona_demandado</t>
+  </si>
+  <si>
+    <t>razon_social_demandado</t>
+  </si>
+  <si>
+    <t>nit_demandado</t>
+  </si>
+  <si>
+    <t>tipo_persona_tercero</t>
+  </si>
+  <si>
+    <t>razon_social_tercero</t>
+  </si>
+  <si>
+    <t>nit_tercero</t>
+  </si>
+  <si>
+    <t>=2</t>
+  </si>
+  <si>
+    <t>=3</t>
+  </si>
+  <si>
+    <t>=4</t>
+  </si>
+  <si>
+    <t>=5</t>
+  </si>
+  <si>
+    <t>=6</t>
+  </si>
+  <si>
+    <t>=7</t>
+  </si>
+  <si>
+    <t>=8</t>
+  </si>
+  <si>
+    <t>=9</t>
+  </si>
+  <si>
+    <t>=10</t>
+  </si>
+  <si>
+    <t>=11</t>
+  </si>
+  <si>
+    <t>=12</t>
+  </si>
+  <si>
+    <t>=13</t>
+  </si>
+  <si>
+    <t>=14</t>
+  </si>
+  <si>
+    <t>=15</t>
+  </si>
+  <si>
+    <t>=16</t>
+  </si>
+  <si>
+    <t>=17</t>
+  </si>
+  <si>
+    <t>=18</t>
+  </si>
+  <si>
+    <t>=19</t>
+  </si>
+  <si>
+    <t>=20</t>
+  </si>
+  <si>
+    <t>=21</t>
+  </si>
+  <si>
+    <t>=22</t>
+  </si>
+  <si>
+    <t>=23</t>
+  </si>
+  <si>
+    <t>global</t>
   </si>
 </sst>
 </file>
@@ -870,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -933,9 +1071,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,6 +1082,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -999,6 +1137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1446,23 +1585,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1494,7 +1633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1510,21 +1649,21 @@
       <c r="I2" s="11"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -1537,12 +1676,12 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
         <v>81</v>
       </c>
@@ -1550,12 +1689,12 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -1566,12 +1705,12 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="47" t="s">
         <v>81</v>
@@ -1580,12 +1719,12 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1596,12 +1735,12 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="47" t="s">
         <v>82</v>
@@ -1610,12 +1749,12 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -1633,7 +1772,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>6</v>
       </c>
@@ -1649,28 +1788,28 @@
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="53" t="str">
+      <c r="H12" s="52" t="str">
         <f>+IF(C10="Tercero Interviniente","Tercero Interviniente","")</f>
         <v>Tercero Interviniente</v>
       </c>
-      <c r="I12" s="54"/>
+      <c r="I12" s="53"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>8</v>
       </c>
@@ -1695,7 +1834,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -1718,7 +1857,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -1741,7 +1880,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>11</v>
       </c>
@@ -1755,7 +1894,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>12</v>
       </c>
@@ -1773,7 +1912,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1785,7 +1924,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -1803,7 +1942,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -1815,7 +1954,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>14</v>
       </c>
@@ -1833,7 +1972,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1844,7 +1983,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -1911,18 +2050,18 @@
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>11</v>
       </c>
@@ -1932,7 +2071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
         <v>19</v>
       </c>
@@ -1942,7 +2081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -1950,7 +2089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -1958,7 +2097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -1966,7 +2105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="57"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -1974,7 +2113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>12</v>
       </c>
@@ -1984,7 +2123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>23</v>
       </c>
@@ -1994,7 +2133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -2002,7 +2141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2020,7 +2159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2028,7 +2167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>51</v>
       </c>
@@ -2038,7 +2177,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2046,7 +2185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>26</v>
       </c>
@@ -2056,7 +2195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2064,7 +2203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2072,7 +2211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2080,7 +2219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2088,7 +2227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2096,7 +2235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2104,7 +2243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2112,7 +2251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2120,7 +2259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2128,7 +2267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2136,7 +2275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2144,7 +2283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2152,7 +2291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2160,7 +2299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2168,7 +2307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2176,7 +2315,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2184,7 +2323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2192,7 +2331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2200,7 +2339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2208,7 +2347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -2233,15 +2372,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>54</v>
       </c>
@@ -2255,7 +2394,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>57</v>
       </c>
@@ -2269,7 +2408,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66"/>
       <c r="B3" s="2" t="s">
         <v>46</v>
@@ -2281,7 +2420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
         <v>61</v>
       </c>
@@ -2291,7 +2430,7 @@
       <c r="C4" s="41"/>
       <c r="D4" s="42"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="67"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -2303,7 +2442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="67"/>
       <c r="B6" s="4" t="s">
         <v>29</v>
@@ -2315,7 +2454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="67"/>
       <c r="B7" s="4" t="s">
         <v>30</v>
@@ -2323,7 +2462,7 @@
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" s="5" t="s">
         <v>29</v>
@@ -2331,7 +2470,7 @@
       <c r="C8" s="45"/>
       <c r="D8" s="46"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="68" t="s">
         <v>44</v>
       </c>
@@ -2345,7 +2484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69"/>
       <c r="B10" s="71"/>
       <c r="C10" s="45" t="s">
@@ -2355,7 +2494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>64</v>
       </c>
@@ -2365,7 +2504,7 @@
       <c r="C11" s="41"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="67"/>
       <c r="B12" s="4" t="s">
         <v>32</v>
@@ -2377,7 +2516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="67"/>
       <c r="B13" s="4" t="s">
         <v>33</v>
@@ -2389,7 +2528,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="66"/>
       <c r="B14" s="5" t="s">
         <v>34</v>
@@ -2397,7 +2536,7 @@
       <c r="C14" s="45"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>65</v>
       </c>
@@ -2411,7 +2550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="67"/>
       <c r="B16" s="6" t="s">
         <v>36</v>
@@ -2419,7 +2558,7 @@
       <c r="C16" s="60"/>
       <c r="D16" s="63"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="67"/>
       <c r="B17" s="6" t="s">
         <v>37</v>
@@ -2427,7 +2566,7 @@
       <c r="C17" s="60"/>
       <c r="D17" s="63"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="67"/>
       <c r="B18" s="6" t="s">
         <v>38</v>
@@ -2435,7 +2574,7 @@
       <c r="C18" s="60"/>
       <c r="D18" s="63"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="67"/>
       <c r="B19" s="6" t="s">
         <v>39</v>
@@ -2443,7 +2582,7 @@
       <c r="C19" s="60"/>
       <c r="D19" s="63"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="67"/>
       <c r="B20" s="6" t="s">
         <v>40</v>
@@ -2451,7 +2590,7 @@
       <c r="C20" s="60"/>
       <c r="D20" s="63"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="67"/>
       <c r="B21" s="6" t="s">
         <v>41</v>
@@ -2459,7 +2598,7 @@
       <c r="C21" s="60"/>
       <c r="D21" s="63"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="67"/>
       <c r="B22" s="6" t="s">
         <v>42</v>
@@ -2467,7 +2606,7 @@
       <c r="C22" s="60"/>
       <c r="D22" s="63"/>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="66"/>
       <c r="B23" s="2" t="s">
         <v>43</v>
@@ -2492,39 +2631,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>83</v>
       </c>
@@ -2592,7 +2731,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="48" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="48" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>88</v>
       </c>
@@ -2611,6 +2750,666 @@
       </c>
       <c r="G2" s="49" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="str">
+        <f>+CONCATENATE(A5,B5)</f>
+        <v>col_radicado_ini</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="str">
+        <f>+CONCATENATE(C5,D5)</f>
+        <v>col_radicado_ini=2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" t="str">
+        <f>+C5</f>
+        <v>col_radicado_ini</v>
+      </c>
+      <c r="I5" t="str">
+        <f>+CONCATENATE(G5," ",H5)</f>
+        <v>global col_radicado_ini</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ref="C6:C26" si="0">+CONCATENATE(A6,B6)</f>
+        <v>col_radicado_completo</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6:E26" si="1">+CONCATENATE(C6,D6)</f>
+        <v>col_radicado_completo=3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H26" si="2">+C6</f>
+        <v>col_radicado_completo</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I26" si="3">+CONCATENATE(G6," ",H6)</f>
+        <v>global col_radicado_completo</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>col_fecha_radicacion</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>col_fecha_radicacion=4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>col_fecha_radicacion</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_fecha_radicacion</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>col_tipo_general_proceso</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>col_tipo_general_proceso=5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>col_tipo_general_proceso</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_tipo_general_proceso</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>col_tipo_especifico_proceso</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>col_tipo_especifico_proceso=6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>col_tipo_especifico_proceso</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_tipo_especifico_proceso</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>col_cuantia</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>col_cuantia=7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>col_cuantia</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_cuantia</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>col_instancia</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>col_instancia=8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>col_instancia</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_instancia</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>col_responsable</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>col_responsable=9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>col_responsable</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_responsable</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>col_apoderado</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>col_apoderado=10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>col_apoderado</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_apoderado</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>col_ciudad</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>col_ciudad=11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>col_ciudad</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_ciudad</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>col_entidad</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>col_entidad=12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>col_entidad</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_entidad</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>col_jurisdiccion</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>col_jurisdiccion=13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>col_jurisdiccion</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_jurisdiccion</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>col_tipo_sujeto_cliente</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>col_tipo_sujeto_cliente=14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>col_tipo_sujeto_cliente</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_tipo_sujeto_cliente</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>col_tipo_persona_demandante</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>col_tipo_persona_demandante=15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>col_tipo_persona_demandante</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_tipo_persona_demandante</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>col_razon_social_demandante</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>col_razon_social_demandante=16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>col_razon_social_demandante</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_razon_social_demandante</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>col_nit_demandate</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>col_nit_demandate=17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>col_nit_demandate</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_nit_demandate</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>col_tipo_persona_demandado</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>col_tipo_persona_demandado=18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>col_tipo_persona_demandado</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_tipo_persona_demandado</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>col_razon_social_demandado</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>col_razon_social_demandado=19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>col_razon_social_demandado</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_razon_social_demandado</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>col_nit_demandado</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>col_nit_demandado=20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>col_nit_demandado</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_nit_demandado</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>col_tipo_persona_tercero</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>col_tipo_persona_tercero=21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>col_tipo_persona_tercero</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_tipo_persona_tercero</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>col_razon_social_tercero</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>col_razon_social_tercero=22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>col_razon_social_tercero</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_razon_social_tercero</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>col_nit_tercero</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>col_nit_tercero=23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>col_nit_tercero</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>global col_nit_tercero</v>
       </c>
     </row>
   </sheetData>
@@ -2626,24 +3425,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>

--- a/Esquema _ Ingr Proceso.xlsx
+++ b/Esquema _ Ingr Proceso.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaz" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>Ciudad</t>
   </si>
@@ -307,144 +307,6 @@
   </si>
   <si>
     <t>2. Actualizar información de procesos y enviar notificación en caso de que haya información nueva (a partir del radicado completo)</t>
-  </si>
-  <si>
-    <t>col_</t>
-  </si>
-  <si>
-    <t>radicado_ini</t>
-  </si>
-  <si>
-    <t>radicado_completo</t>
-  </si>
-  <si>
-    <t>fecha_radicacion</t>
-  </si>
-  <si>
-    <t>tipo_general_proceso</t>
-  </si>
-  <si>
-    <t>tipo_especifico_proceso</t>
-  </si>
-  <si>
-    <t>cuantia</t>
-  </si>
-  <si>
-    <t>instancia</t>
-  </si>
-  <si>
-    <t>responsable</t>
-  </si>
-  <si>
-    <t>apoderado</t>
-  </si>
-  <si>
-    <t>ciudad</t>
-  </si>
-  <si>
-    <t>entidad</t>
-  </si>
-  <si>
-    <t>jurisdiccion</t>
-  </si>
-  <si>
-    <t>tipo_sujeto_cliente</t>
-  </si>
-  <si>
-    <t>tipo_persona_demandante</t>
-  </si>
-  <si>
-    <t>razon_social_demandante</t>
-  </si>
-  <si>
-    <t>nit_demandate</t>
-  </si>
-  <si>
-    <t>tipo_persona_demandado</t>
-  </si>
-  <si>
-    <t>razon_social_demandado</t>
-  </si>
-  <si>
-    <t>nit_demandado</t>
-  </si>
-  <si>
-    <t>tipo_persona_tercero</t>
-  </si>
-  <si>
-    <t>razon_social_tercero</t>
-  </si>
-  <si>
-    <t>nit_tercero</t>
-  </si>
-  <si>
-    <t>=2</t>
-  </si>
-  <si>
-    <t>=3</t>
-  </si>
-  <si>
-    <t>=4</t>
-  </si>
-  <si>
-    <t>=5</t>
-  </si>
-  <si>
-    <t>=6</t>
-  </si>
-  <si>
-    <t>=7</t>
-  </si>
-  <si>
-    <t>=8</t>
-  </si>
-  <si>
-    <t>=9</t>
-  </si>
-  <si>
-    <t>=10</t>
-  </si>
-  <si>
-    <t>=11</t>
-  </si>
-  <si>
-    <t>=12</t>
-  </si>
-  <si>
-    <t>=13</t>
-  </si>
-  <si>
-    <t>=14</t>
-  </si>
-  <si>
-    <t>=15</t>
-  </si>
-  <si>
-    <t>=16</t>
-  </si>
-  <si>
-    <t>=17</t>
-  </si>
-  <si>
-    <t>=18</t>
-  </si>
-  <si>
-    <t>=19</t>
-  </si>
-  <si>
-    <t>=20</t>
-  </si>
-  <si>
-    <t>=21</t>
-  </si>
-  <si>
-    <t>=22</t>
-  </si>
-  <si>
-    <t>=23</t>
-  </si>
-  <si>
-    <t>global</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1137,7 +999,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2368,9 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2631,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,8 +2502,8 @@
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
@@ -2752,666 +2611,6 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="str">
-        <f>+CONCATENATE(A5,B5)</f>
-        <v>col_radicado_ini</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="str">
-        <f>+CONCATENATE(C5,D5)</f>
-        <v>col_radicado_ini=2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" t="str">
-        <f>+C5</f>
-        <v>col_radicado_ini</v>
-      </c>
-      <c r="I5" t="str">
-        <f>+CONCATENATE(G5," ",H5)</f>
-        <v>global col_radicado_ini</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ref="C6:C26" si="0">+CONCATENATE(A6,B6)</f>
-        <v>col_radicado_completo</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6:E26" si="1">+CONCATENATE(C6,D6)</f>
-        <v>col_radicado_completo=3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" ref="H6:H26" si="2">+C6</f>
-        <v>col_radicado_completo</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" ref="I6:I26" si="3">+CONCATENATE(G6," ",H6)</f>
-        <v>global col_radicado_completo</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>col_fecha_radicacion</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>col_fecha_radicacion=4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="2"/>
-        <v>col_fecha_radicacion</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_fecha_radicacion</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>col_tipo_general_proceso</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>col_tipo_general_proceso=5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="2"/>
-        <v>col_tipo_general_proceso</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_tipo_general_proceso</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>col_tipo_especifico_proceso</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>col_tipo_especifico_proceso=6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="2"/>
-        <v>col_tipo_especifico_proceso</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_tipo_especifico_proceso</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>col_cuantia</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>col_cuantia=7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="2"/>
-        <v>col_cuantia</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_cuantia</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>col_instancia</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>col_instancia=8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>col_instancia</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_instancia</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>col_responsable</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>col_responsable=9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="2"/>
-        <v>col_responsable</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_responsable</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>col_apoderado</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>col_apoderado=10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="2"/>
-        <v>col_apoderado</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_apoderado</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>col_ciudad</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>col_ciudad=11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="2"/>
-        <v>col_ciudad</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_ciudad</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>col_entidad</v>
-      </c>
-      <c r="D15" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>col_entidad=12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="2"/>
-        <v>col_entidad</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_entidad</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>col_jurisdiccion</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>col_jurisdiccion=13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="2"/>
-        <v>col_jurisdiccion</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_jurisdiccion</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>col_tipo_sujeto_cliente</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>col_tipo_sujeto_cliente=14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="2"/>
-        <v>col_tipo_sujeto_cliente</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_tipo_sujeto_cliente</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>col_tipo_persona_demandante</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>col_tipo_persona_demandante=15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="2"/>
-        <v>col_tipo_persona_demandante</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_tipo_persona_demandante</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>col_razon_social_demandante</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>col_razon_social_demandante=16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="2"/>
-        <v>col_razon_social_demandante</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_razon_social_demandante</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>col_nit_demandate</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>col_nit_demandate=17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="2"/>
-        <v>col_nit_demandate</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_nit_demandate</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>col_tipo_persona_demandado</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>col_tipo_persona_demandado=18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="2"/>
-        <v>col_tipo_persona_demandado</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_tipo_persona_demandado</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>col_razon_social_demandado</v>
-      </c>
-      <c r="D22" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>col_razon_social_demandado=19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="2"/>
-        <v>col_razon_social_demandado</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_razon_social_demandado</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>col_nit_demandado</v>
-      </c>
-      <c r="D23" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>col_nit_demandado=20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>col_nit_demandado</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_nit_demandado</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>col_tipo_persona_tercero</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>col_tipo_persona_tercero=21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>col_tipo_persona_tercero</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_tipo_persona_tercero</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>col_razon_social_tercero</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>col_razon_social_tercero=22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="2"/>
-        <v>col_razon_social_tercero</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_razon_social_tercero</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>col_nit_tercero</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>col_nit_tercero=23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>col_nit_tercero</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="3"/>
-        <v>global col_nit_tercero</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
